--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="239">
   <si>
     <t>publication_date</t>
   </si>
@@ -37,595 +37,700 @@
     <t>link</t>
   </si>
   <si>
+    <t>negativ</t>
+  </si>
+  <si>
     <t>neutru</t>
   </si>
   <si>
-    <t>negativ</t>
-  </si>
-  <si>
     <t>pozitiv</t>
   </si>
   <si>
-    <t>1005600027539</t>
-  </si>
-  <si>
-    <t>1023600015587</t>
-  </si>
-  <si>
-    <t>1003604006442</t>
-  </si>
-  <si>
-    <t>1020600026942</t>
-  </si>
-  <si>
-    <t>1020600038903</t>
-  </si>
-  <si>
-    <t>1015611002508</t>
-  </si>
-  <si>
-    <t>1008600045228</t>
-  </si>
-  <si>
-    <t>1004600017209</t>
-  </si>
-  <si>
-    <t>1018600033763</t>
-  </si>
-  <si>
-    <t>1023602002420</t>
-  </si>
-  <si>
-    <t>1003604151869</t>
-  </si>
-  <si>
-    <t>1023600005405</t>
-  </si>
-  <si>
-    <t>1023602011354</t>
-  </si>
-  <si>
-    <t>1021600017875</t>
-  </si>
-  <si>
-    <t>SANATATEA S.R.L.</t>
-  </si>
-  <si>
-    <t>DRIVE MOTORS S.R.L.</t>
-  </si>
-  <si>
-    <t>CAROLINA S.R.L.</t>
-  </si>
-  <si>
-    <t>NEW LOGISTICS S.R.L.</t>
-  </si>
-  <si>
-    <t>YOUR EVENT S.R.L.</t>
-  </si>
-  <si>
-    <t>S.R.L. AUTO PUNCTUL</t>
-  </si>
-  <si>
-    <t>SIRBU PRIM S.R.L.</t>
-  </si>
-  <si>
-    <t>SEBASTIAN S.R.L.</t>
-  </si>
-  <si>
-    <t>AUTHENTIC SERVICE S.R.L.</t>
-  </si>
-  <si>
-    <t>S.R.L. AREA VITAL</t>
-  </si>
-  <si>
-    <t>S.R.L. RESTABILIRE</t>
-  </si>
-  <si>
-    <t>INVESTMENTS BUSINESS S.R.L.</t>
-  </si>
-  <si>
-    <t>G.T. SANDU DUMITRU ALEXANDRU din s.Hiliuti rl.Riscani</t>
-  </si>
-  <si>
-    <t>PREMIUM DIAGNOSTIC S.R.L.</t>
-  </si>
-  <si>
-    <t>Sănătate Info</t>
+    <t>1002605000521</t>
+  </si>
+  <si>
+    <t>1002600043543</t>
+  </si>
+  <si>
+    <t>1003600023124</t>
+  </si>
+  <si>
+    <t>1004600057247</t>
+  </si>
+  <si>
+    <t>1002600052123</t>
+  </si>
+  <si>
+    <t>1002600001257</t>
+  </si>
+  <si>
+    <t>1011607000998</t>
+  </si>
+  <si>
+    <t>1004600000070</t>
+  </si>
+  <si>
+    <t>1004606005619</t>
+  </si>
+  <si>
+    <t>1007601009484</t>
+  </si>
+  <si>
+    <t>1017600018297</t>
+  </si>
+  <si>
+    <t>1003600086062</t>
+  </si>
+  <si>
+    <t>1003600053518</t>
+  </si>
+  <si>
+    <t>1011611000539</t>
+  </si>
+  <si>
+    <t>1002600029473</t>
+  </si>
+  <si>
+    <t>1002600024700</t>
+  </si>
+  <si>
+    <t>1003600072948</t>
+  </si>
+  <si>
+    <t>1003606005210</t>
+  </si>
+  <si>
+    <t>1002609002062</t>
+  </si>
+  <si>
+    <t>1004600073997</t>
+  </si>
+  <si>
+    <t>1010600022460</t>
+  </si>
+  <si>
+    <t>1002600005059</t>
+  </si>
+  <si>
+    <t>1007600016362</t>
+  </si>
+  <si>
+    <t>1003600117582</t>
+  </si>
+  <si>
+    <t>1002600048836</t>
+  </si>
+  <si>
+    <t>CIMISLIA S.A.</t>
+  </si>
+  <si>
+    <t>MELODIA S.A.</t>
+  </si>
+  <si>
+    <t>ACCENT ELECTRONIC S.A.</t>
+  </si>
+  <si>
+    <t>S.C. MAESTRO-NUT S.R.L.</t>
+  </si>
+  <si>
+    <t>CALEA FERATA DIN MOLDOVA IS</t>
+  </si>
+  <si>
+    <t>MAGISTRALA-NORD S.R.L.</t>
+  </si>
+  <si>
+    <t>O.C.N. MAIB-LEASING S.A.</t>
+  </si>
+  <si>
+    <t>S.R.L. ROCKSCOR BREWERY</t>
+  </si>
+  <si>
+    <t>PRIMARIA MUNICIPIULUI CHISINAU</t>
+  </si>
+  <si>
+    <t>EUROPLAS LUX S.R.L.</t>
+  </si>
+  <si>
+    <t>CRICOVA S.A.</t>
+  </si>
+  <si>
+    <t>O.C.N. MICROINVEST S.R.L.</t>
+  </si>
+  <si>
+    <t>I.C.S. TERRA IMPEX S.R.L.</t>
+  </si>
+  <si>
+    <t>GEMENI S.A.</t>
+  </si>
+  <si>
+    <t>I.P. AGENTIA SERVICII PUBLICE</t>
+  </si>
+  <si>
+    <t>I.M. VINARIA PURCARI S.R.L.</t>
+  </si>
+  <si>
+    <t>OROM-IMEXPO S.R.L.</t>
+  </si>
+  <si>
+    <t>COVOARE-UNGHENI S.A.</t>
+  </si>
+  <si>
+    <t>I.C.S. DANUBE LOGISTICS S.R.L.</t>
+  </si>
+  <si>
+    <t>MOLDRETAIL GROUP S.R.L.</t>
+  </si>
+  <si>
+    <t>S.A. JLC</t>
+  </si>
+  <si>
+    <t>S.C. ART BUSINESS CLUB S.R.L.</t>
+  </si>
+  <si>
+    <t>GBG-MLD S.R.L.</t>
+  </si>
+  <si>
+    <t>SA MOLDTELECOM</t>
+  </si>
+  <si>
+    <t>Moldpres</t>
+  </si>
+  <si>
+    <t>Universul.net</t>
+  </si>
+  <si>
+    <t>Bizlaw</t>
+  </si>
+  <si>
+    <t>ZiarulNational.md</t>
+  </si>
+  <si>
+    <t>Ziarul de Gardă</t>
+  </si>
+  <si>
+    <t>ziar.md</t>
+  </si>
+  <si>
+    <t>Diez.md</t>
+  </si>
+  <si>
+    <t>NewsMaker</t>
+  </si>
+  <si>
+    <t>Jurnal.md</t>
+  </si>
+  <si>
+    <t>Moldova.org</t>
+  </si>
+  <si>
+    <t>Jurnalist.MD</t>
+  </si>
+  <si>
+    <t>JurnalTV</t>
+  </si>
+  <si>
+    <t>Agora.md</t>
+  </si>
+  <si>
+    <t>Nordnews.md</t>
+  </si>
+  <si>
+    <t>www.chisinau.md</t>
+  </si>
+  <si>
+    <t>Vocea Basarabiei</t>
+  </si>
+  <si>
+    <t>MoldStreet</t>
   </si>
   <si>
     <t>PiataAuto.md</t>
   </si>
   <si>
-    <t>ZiarulNational.md</t>
-  </si>
-  <si>
-    <t>Radio Chișinău</t>
-  </si>
-  <si>
     <t>Deschide.md</t>
   </si>
   <si>
-    <t>Europa Liberă România</t>
-  </si>
-  <si>
-    <t>Diez.md</t>
-  </si>
-  <si>
-    <t>Jurnal.md</t>
-  </si>
-  <si>
-    <t>Moldpres</t>
+    <t>Ziuadeazi.md</t>
+  </si>
+  <si>
+    <t>Bani.md</t>
   </si>
   <si>
     <t>ANTICORUPTIE.MD</t>
   </si>
   <si>
-    <t>JurnalTV</t>
+    <t>Guvernul Republicii Moldova</t>
+  </si>
+  <si>
+    <t>timpul.md</t>
+  </si>
+  <si>
+    <t>Primăria Chișinău</t>
   </si>
   <si>
     <t>Новости Бельцы Молдова</t>
   </si>
   <si>
-    <t>Vocea poporului</t>
-  </si>
-  <si>
-    <t>Agora.md</t>
-  </si>
-  <si>
-    <t>Bizlaw</t>
-  </si>
-  <si>
-    <t>Ziuadeazi.md</t>
-  </si>
-  <si>
     <t>Agenţia de presă | IPN</t>
   </si>
   <si>
-    <t>Moldova.org</t>
-  </si>
-  <si>
-    <t>TIMPUL.MD</t>
-  </si>
-  <si>
-    <t>Agro TV Moldova</t>
-  </si>
-  <si>
     <t>EA.md</t>
   </si>
   <si>
-    <t>NewsMaker</t>
-  </si>
-  <si>
-    <t>Apel public al Universității de Medicină și Farmacie „Nicolae Testemițanu” pentru susținerea proiectului de Lege pentru Controlul Tutunului: „Este un pas crucial pentru sănătatea tinerilor”</t>
-  </si>
-  <si>
-    <t>Schaeffler, încă un mare furnizor auto, anunţă că va concedia 4.700 de angajaţi la fabricile din Europa şi va închide două fabrici</t>
-  </si>
-  <si>
-    <t>Inginerii Honda au creat un nou motor V3 de motocicletă, cu 3 cilindri şi o turbină electrică</t>
-  </si>
-  <si>
-    <t>Trei ani de închisoare pentru 1 600 de euro și trei mii de lei, bani estorcați pentru a facilita obținerea unui permis de conducere: Individul nu și-a mai onorat promisiunea, dar și-a recunoscut vina în instanță</t>
-  </si>
-  <si>
-    <t>Motorina se scumpește ușor. Prețurile stabilite de ANRE pentru carburanții auto</t>
-  </si>
-  <si>
-    <t>(VIDEO) Chinezii au lansat Souo S2000, o motocicletă cu motor de 8 cilindri cu o inginerie unică în lume</t>
-  </si>
-  <si>
-    <t>Alegeri SUA 2024 // Donald Trump câştigă în Carolina de Nord, unul dintre cele şapte state-cheie</t>
-  </si>
-  <si>
-    <t>Rezultate alegeri SUA 2024, se numără voturile. Trump a câștigat în Georgia și Carolina de Nord. Kamala Harris câștigă în Virginia și Hawaii</t>
-  </si>
-  <si>
-    <t>(VIDEO) Un mecanic american a dezasamblat renumitul motor diesel 1.9 TDI de la VW şi-l declară unul din cele mai bune din toate timpurile</t>
-  </si>
-  <si>
-    <t>Live blog | Trump conduce cursa și câștigă două state indecise, Carolina de Nord și Georgia. Kamala Harris păstrează șanse</t>
-  </si>
-  <si>
-    <t>Live blog | Trump conduce cursa și câștigă în Carolina de Nord, unul dintre statele indecise. Kamala Harris păstrează șanse</t>
-  </si>
-  <si>
-    <t>Ai grijă de sănătatea părului tău! Screening gratuit pentru un scalp sănătos oferit de Farmacia Familiei</t>
-  </si>
-  <si>
-    <t>Turul II // Promo-LEX, primele incidente de la prezidențiale: Agitație electorală, fotografierea buletinelor și transport organizat de alegători</t>
-  </si>
-  <si>
-    <t>(VIDEO) Acest Daewoo Matiz din Marea Britanie are sub capotă un motor de 3,2 litri V6</t>
-  </si>
-  <si>
-    <t>Producătorul chinez BYD a vândut un număr record de jumătate de milion de mașini în luna octombrie</t>
-  </si>
-  <si>
-    <t>VIDEO // Transport organizat din Transnistria? Oamenii recunosc că cetățenii sunt aduși cu autocarele</t>
-  </si>
-  <si>
-    <t>Moldova DevCon 2024 conference, dedicated to developers in IT sector, held in Chisinau</t>
-  </si>
-  <si>
-    <t>DOC// Compania afiliată lui Ilan Șor, care a pierdut gările auto, cu cererea de strămutare respinsă</t>
-  </si>
-  <si>
-    <t>„Carte Verde”, documentul esențial pentru conducătorii auto care călătoresc în străinătate, va fi emis în format digital</t>
-  </si>
-  <si>
-    <t>Un grup de moldoveni, adus acasă din Rusia cu transport gratuit pentru a participa la alegerile din 3 noiembrie</t>
-  </si>
-  <si>
-    <t>Besarab-Folk festival and contest held in Taraclia on Day of Bessarabian Bulgarians</t>
-  </si>
-  <si>
-    <t>Tuberculoza rămâne o provocare majoră pentru sănătatea publică la nivel mondial, în special în țările cu venituri mici</t>
-  </si>
-  <si>
-    <t>Învață despre sănătatea mediului la Summitul Internațional al Tineretului privind Clima. Activitățile vor avea loc în Slovenia</t>
-  </si>
-  <si>
-    <t>VW anunţă că profiturile sale s-au prăbuşit cu 42%, dar cifrele arată că problema cea mare nu vine din fabrici sau încasări din vânzări de maşini</t>
-  </si>
-  <si>
-    <t>Securitatea și sănătatea în muncă, abordate la un forum al țărilor balcanice</t>
-  </si>
-  <si>
-    <t>Irina Rîngaci becomes world champion in women's wrestling</t>
-  </si>
-  <si>
-    <t>Carburanții auto continuă să se ieftinească. Noile prețuri stabilite de ANRE</t>
-  </si>
-  <si>
-    <t>(VIDEO) Hypercar-ul suedez Koenigsegg Agera RST, cu V8 de 1.360 CP, n-a putut învinge Tesla Model X Plaid, o maşină electrică ce are o tonă de greutate în plus</t>
-  </si>
-  <si>
-    <t>Arest preventiv de 30 de zile pentru administratorul unei companii de închirieri auto</t>
-  </si>
-  <si>
-    <t>Permisele de conducere auto moldovenești pot fi convertite în Israel</t>
-  </si>
-  <si>
-    <t>Cetățenii Republicii Moldova aflați în Israel își pot converti permisele de conducere auto</t>
-  </si>
-  <si>
-    <t>Șoferii pot reclama online agresiunile din trafic, anunță Ministerul de Interne</t>
-  </si>
-  <si>
-    <t>CEC a acreditat 19 observatori pentru monitorizarea turului II al alegerilor prezidențiale din 3 noiembrie</t>
-  </si>
-  <si>
-    <t>Un administrator al unei companii în domeniul închirierii auto a fost reținut, după ce ar fi delapidat compania și ar fi estorcat sume de bani</t>
-  </si>
-  <si>
-    <t>Șeful unei firme de închirieri auto, reținut pentru delapidări de peste un milion de lei</t>
-  </si>
-  <si>
-    <t>Sala cu Orgă invită publicul la cea de-a XIII-a ediție a Festivalului Internațional J.S. Bach</t>
-  </si>
-  <si>
-    <t>Borussia Dortmund a anunțat decizia luată în cazul lui Nuri Șahin, după eliminarea din Cupa Germaniei</t>
-  </si>
-  <si>
-    <t>Sondaje sau pariuri? De ce sunt atât de diferite sondajele de opinie pentru alegerile prezidențiale și cine câștigă din asta</t>
-  </si>
-  <si>
-    <t>Mii de automobile au fost distruse în inundaţiile din Valencia, cele mai grave din Spania din ultimele decenii</t>
-  </si>
-  <si>
-    <t>VIDEO | Bomba cu ceas de la Planșeul Unirii</t>
-  </si>
-  <si>
-    <t>Bomba cu ceas de la Planșeul Unirii: poate afecta Dâmbovița, metroul, transportul central și rețeaua de canalizare</t>
-  </si>
-  <si>
-    <t>Miniștrii Energiei de la București și Chișinău au semnat un memorandum de înțelegere privind implementarea proiectelor comune</t>
-  </si>
-  <si>
-    <t>Mercedes a inaugurat prima fabrică din Europa de reciclare integrată a bateriilor, care reciclează 96% din componente şi foloseşte procese hidrometalurgice</t>
-  </si>
-  <si>
-    <t>Carburanții auto încep săptămâna cu ieftiniri. Prețurile stabilite de ANRE</t>
-  </si>
-  <si>
-    <t>România trece iarna cu gazele din depozite. Vor fi și plafonări</t>
-  </si>
-  <si>
-    <t>Rector of Moldovan State University launches book on Bessarabia in Russian historiography at Oradea University</t>
-  </si>
-  <si>
-    <t>(VIDEO) Un moldovean povesteşte experienţa de cumpărare a unui DS7 francez în Moldova, acolo unde nu există o reprezentanţă oficială şi nici service</t>
-  </si>
-  <si>
-    <t>UE interzice erbicidele: Un pas decisiv pentru sănătatea publică</t>
-  </si>
-  <si>
-    <t>De ce s-au dublat prețurile locuințelor din Cluj în ultimii 10 ani și ce riscă orașul dacă nu se găsesc repede soluții</t>
-  </si>
-  <si>
-    <t>Original holiday held at Nicolae Testemitanu medical University of Moldova: Indian students mark Onam harvest festival</t>
-  </si>
-  <si>
-    <t>The New York Times: Mai mulți copii din Fâșia Gaza ar fi fost împușcați în zone vitale</t>
-  </si>
-  <si>
-    <t>Maia Sandu raportează un nou fals, legat de sănătatea sa: „Sunt sănătoasă, mi-ajung forțe să lupt cu toți bandiții”</t>
-  </si>
-  <si>
-    <t>Şeful BMW face declaraţii tranşante şi spune că interzicerea motoarelor cu combustie în 2035 în UE nu mai e realistă</t>
-  </si>
-  <si>
-    <t>Nisporeni town of Moldova endowed with modern technology, equipment for waste management</t>
-  </si>
-  <si>
-    <t>(VIDEO) Acest motor de BMW arată de ce intervalele mari recomandate de producător pentru schimbul de ulei trebuie ignorate</t>
-  </si>
-  <si>
-    <t>Maib și BMW Moldova lansează un parteneriat pentru soluții de finanțare auto inovatoare, dedicate companiilor</t>
-  </si>
-  <si>
-    <t>Atenție, candidații care vor permis auto din categoriile A, B, C și D. Regulile noi stabilite de ASP!</t>
-  </si>
-  <si>
-    <t>Pictura murală dedicată sportivilor va fi restabilită</t>
-  </si>
-  <si>
-    <t>(VIDEO) Şeful diviziei M de la BMW spune că viitorul M3 va fi electric, cu 4 electromotoare, dar actualul propulsor cu combustie S58 ar putea rămâne în producţie</t>
-  </si>
-  <si>
-    <t>ANRE anunță noi prețuri la carburanții auto. Cât vor costa benzina și motorina</t>
-  </si>
-  <si>
-    <t>Zeci de organizații civice îl acuză pe ministrul Energiei de intimidare prin intermediul Justiției. Reacția lui Sebastian Burduja</t>
-  </si>
-  <si>
-    <t>BEC: Lista finală a candidaților la alegerile prezidenţiale: 10 de la partide și 4 independenţi</t>
-  </si>
-  <si>
-    <t>În atenția șoferilor! Traficul rutier va fi suspendat pe bulevardul Decebal din Chișinău</t>
-  </si>
-  <si>
-    <t>Fructul care ajută la echilibrarea hormonilor și sprijină sănătatea mentală</t>
-  </si>
-  <si>
-    <t>FOTO // Oamenii lui Plahotniuc, ”la braț” cu directorul ”Gărilor Auto Moderne”</t>
-  </si>
-  <si>
-    <t>Cum afectează țigaretele electronice sănătatea adolescenților. Ninel Revenco, președinta Societății de Pediatrie din R.Moldova- „Fumătorii dezvoltă afecțiuni cardiovasculare încă din adolescență”</t>
-  </si>
-  <si>
-    <t>Ce efect poate avea în România creșterea de către UE a taxelor la mașinile electrice din China</t>
-  </si>
-  <si>
-    <t>Cod Galben de ceață: Conducătorii auto sunt îndemnați să circule cu atenţie</t>
-  </si>
-  <si>
-    <t>Fondatorul companiei Proimobil.md, Vlad Musteață, inclus de revista Business Magazin în lista „Tineri Manageri de Top 2024” din România</t>
-  </si>
-  <si>
-    <t>Peste 80 de persoane vor licența de avocat. Cine sunt candidații admiși la proba scrisă a examenului de calificare</t>
+    <t>Ministerul Agriculturii s-a raliat la Campania națională „Generația Pădurii”, plantând salcâm în raionul Cimişlia</t>
+  </si>
+  <si>
+    <t>VIDEO | „God bless the USA”, cântecul ales de Donald Trump pentru a-şi revendica victoria</t>
+  </si>
+  <si>
+    <t>Crearea Agenției pentru Digitalizare în Justiție și Administrare Judecătorească, aprobată de Guvern</t>
+  </si>
+  <si>
+    <t>DRRM a dotat cu table interactive toate grupele din grădinițele situate în orașul Cimișlia: Investiții de peste 1,2 milioane de lei. „Mulțumiri speciale lui Adrian Dupu pentru sprijinul continuu și parteneriatul de succes”</t>
+  </si>
+  <si>
+    <t>Creșterea exportului produselor moldovenești pe piața saudită, discutată la Raid de vicepremierul Mihai Popșoi</t>
+  </si>
+  <si>
+    <t>Consultații stomatologice gratuite pentru copiii din raioanele Hâncești și Cimișlia, în această săptămână</t>
+  </si>
+  <si>
+    <t>Copiii din raioanele Hîncești și Cimișlia vor putеа beneficia de servicii stomatologice gratuite</t>
+  </si>
+  <si>
+    <t>Servicii stomatologice gratuite pentru copii. Echipele mobile de medici ajung la Hîncești și Cimișlia</t>
+  </si>
+  <si>
+    <t>Topul celor mai active și al celor mai pasive raioane din Republica Moldova la turul II al alegerilor prezidențiale</t>
+  </si>
+  <si>
+    <t>Turul II al alegerilor prezidențiale 2024. Rezultate preliminare: Maia Sandu a câștigat al doilea mandat de președintă</t>
+  </si>
+  <si>
+    <t>Cum aflu la ce secție de votare pot să votez? Listele de pe teritoriul țării, inclusiv stânga Nistrului, și din străinătate</t>
+  </si>
+  <si>
+    <t>În raionul Florești au început lucrările de construcție-montaj a unui apeduct magistral pentru asigurarea cu apă din Nistru a patru localități</t>
+  </si>
+  <si>
+    <t>„Echipa lui Ilan Șor”, vizată de percheziții? 12 persoane - bănuite că ar fi oferit bani alegătorilor. Un lider din Cimișlia - reținut</t>
+  </si>
+  <si>
+    <t>Liderul organizației teritoriale a blocului „Pobeda” din Cimișlia, reținut pentru 72 de ore pentru fraudă electorală</t>
+  </si>
+  <si>
+    <t>Leasing Financiar de la OTP Bank – mai avantajos pentru afacerea ta</t>
+  </si>
+  <si>
+    <t>În raionul Florești încep lucrările de construcție a unui apeduct magistral pentru patru localități</t>
+  </si>
+  <si>
+    <t>Sandu promite remanieri în cel de-al doilea mandat</t>
+  </si>
+  <si>
+    <t>Pecheziții la Cimișlia și Comrat</t>
+  </si>
+  <si>
+    <t>Cea de-a VIII-a ediție a Festivalului „Mioriță Laie, Laie Bucălaie” s-a desfășurat la Cimișlia</t>
+  </si>
+  <si>
+    <t>O femeie din Cimișlia este cercetată penal pentru escrocherie și organizarea migrației ilegale în Israel</t>
+  </si>
+  <si>
+    <t>Dosarul coruperii electorale: Percheziții la Cimișlia și Comrat. Șase persoane, statut de bănuit</t>
+  </si>
+  <si>
+    <t>Mascații CNA descind la Cimișlia și Comrat. Șase suspecți de corupere electorală și finanțare ilegală a partidelor</t>
+  </si>
+  <si>
+    <t>R. Moldova găzduiește turul #BigFamTripMoldova2024. Evenimentul reunește participanți din circa 12 țări</t>
+  </si>
+  <si>
+    <t>Primăria municipiului Chișinău a acordat diplome de onoare angajaților Direcției generale arhitectură, urbanism și relații funciare</t>
+  </si>
+  <si>
+    <t>(video) Episodul 6 din „Droom Boon”: foc la ghete prin Soroca și Florești</t>
+  </si>
+  <si>
+    <t>Moldova găzduiește „Big Fam Trip”</t>
+  </si>
+  <si>
+    <t>Două companii din Moldova, parte a unui holding de materiale de construcţii, vor fuziona</t>
+  </si>
+  <si>
+    <t>O nouă joncţiune imensă ar putea fi construită în sectorul Botanica din Chişinău, la pachet cu un nou bloc locativ de 25 etaje</t>
+  </si>
+  <si>
+    <t>Creditarea responsabilă – cheia succesului pentru antreprenori! Interviu cu Olga Guzun, Șefă Departament Clienți Business la Microinvest</t>
+  </si>
+  <si>
+    <t>Atenție! Trenul Chișinău-Iași va circula până la stația Holboca</t>
+  </si>
+  <si>
+    <t>EFSE își consolidează parteneriatul cu Microinvest pentru a stimula creditarea în monedă locală a IMM-urilor din Moldova</t>
+  </si>
+  <si>
+    <t>Fondul Green for Growth inițiază un parteneriat cu Microinvest în Moldova</t>
+  </si>
+  <si>
+    <t>Unde vor vota alegătorii din regiunea transnistreană. Adresele secțiilor de votare – Ziarul de Gardă</t>
+  </si>
+  <si>
+    <t>Cum a votat fiecare raion la referendum // UPDATE</t>
+  </si>
+  <si>
+    <t>Cum s-a votat în toate raioanele din Moldova la prezidențialele din 2024</t>
+  </si>
+  <si>
+    <t>Putin, față în față cu șeful ONU</t>
+  </si>
+  <si>
+    <t>Ce trebuie să facă cetățenii a căror buletine de identitate au expirat înainte de alegeri</t>
+  </si>
+  <si>
+    <t>Liderul pieței de creditare nebancară din Republica Moldova, sancționat de CNPF pentru încălcarea legislației privind contractele de credit</t>
+  </si>
+  <si>
+    <t>Referendum // Digi24: „Integrarea este foarte importantă, nu stați acasă, mergeți la vot!”</t>
+  </si>
+  <si>
+    <t>Parteneriat strategic între DFC și Microinvest pentru susținerea antreprenorilor din Moldova</t>
+  </si>
+  <si>
+    <t>DFC și Microinvest își consolidează parteneriatul printr-un credit de 30 de mln. de dolari pentru sprijinul antreprenoriatului în Moldova</t>
+  </si>
+  <si>
+    <t>O corporaţie americană va credita cea mai mare bancă şi cel mai mare creditor nebancar</t>
+  </si>
+  <si>
+    <t>Igor Golban, fondatorul Biantti, client Microinvest: Utilajele inovatoare asigură o producere sustenabilă, cu minimum deșeuri (INTERVIU)</t>
+  </si>
+  <si>
+    <t>Cel mai mare creditor nebancar, cel mai mare broker de asigurare și cea mai mică bancă</t>
+  </si>
+  <si>
+    <t>Cine sunt granzii din umbră ai exporturilor de cereale și oleaginoase? Printre ei, un milionar discret</t>
+  </si>
+  <si>
+    <t>Jurnalul orei 19, 16 Octombrie</t>
+  </si>
+  <si>
+    <t>Miniștrii Justiției din R. Moldova și România au semnat un plan bilateral de acțiuni pentru perioada 2025-2027</t>
+  </si>
+  <si>
+    <t>Un holding industrial din România își anunță extinderea în Republica Moldova</t>
+  </si>
+  <si>
+    <t>CFM a primit încă un lot de şine noi pentru reabilitarea căilor ferate din ţară</t>
+  </si>
+  <si>
+    <t>Vinăriile din R. Moldova se îndepărtează de gazul rusesc: „Eram ostaticii Gazprom”</t>
+  </si>
+  <si>
+    <t>Nicu Popescu, invitat la ”Dialog Deschis”! Subiectele de discuție cu fostul ministru de Externe</t>
+  </si>
+  <si>
+    <t>PREZIDENȚIALE - 2024 // Renato Usatîi: legături cu lumea interlopă, dosare penale și implicare în Laundromat</t>
+  </si>
+  <si>
+    <t>Adresele secțiilor de votare destinate pentru alegătorii din regiunea transnistreană</t>
+  </si>
+  <si>
+    <t>Sondaj // Peste 63% din moldoveni vor integrarea la UE, însă doar 55% sunt gata să voteze la referendum</t>
+  </si>
+  <si>
+    <t>Cel mai mare producător de covoare din Moldova a intrat în insolvabilitate</t>
+  </si>
+  <si>
+    <t>Cel mai mare producător de covoare din Republica Moldova, „Covoare-Ungheni”, a intrat în insolvabilitate</t>
+  </si>
+  <si>
+    <t>NM Espresso: Ce ne-au promis candidații la președinție, pe cine susțin regiunile și ce a spus Mazeiks despre creditele UE</t>
+  </si>
+  <si>
+    <t>Maia Sandu: Să nu ne oprim la jumătate de drum - să continuăm împreună dezvoltarea țării!</t>
+  </si>
+  <si>
+    <t>Vă rugăm să preveniți o nouă ilegalitate</t>
+  </si>
+  <si>
+    <t>(VIDEO) Sprijin pentru afaceri locale: Directorul ODA în dialog cu antreprenorii din raionul Cimișlia</t>
+  </si>
+  <si>
+    <t>Cum arată în prezent lucrările la traseul R26, unul din cele mai importante din Moldova, care leagă sudul de sud-estul ţării</t>
+  </si>
+  <si>
+    <t>Maia Sandu, în discuții cu elevii din Cimișlia: „Moldova europeană se construiește prin unitate, efort comun și multă muncă”</t>
+  </si>
+  <si>
+    <t>Târgul de covoare la Cahul. REDUCERI până la 80 %</t>
+  </si>
+  <si>
+    <t>Nașul milionar al unui fost deputat pregătește o achiziție de amploare. Vizează un lanț de supermarketuri</t>
+  </si>
+  <si>
+    <t>Primăria Municipiului Chișinău a lansat înscrierile pentru Festivalul Municipal al Voluntarilor 2024</t>
+  </si>
+  <si>
+    <t>Scumpiri de 10% la produsele lactate, anunțate de cel mai mare producător din țară</t>
+  </si>
+  <si>
+    <t>Produsele de lapte JLC devin mai scumpe: majorări de preț | СП - Știri Bălți Moldova</t>
+  </si>
+  <si>
+    <t>Cel mai mare producător a scumpit lactatele cu circa 10%</t>
+  </si>
+  <si>
+    <t>Cel mai mare producător de lactate a scumpit produsele cu circa 10%. Vezi motivul</t>
+  </si>
+  <si>
+    <t>Million Club: Moldova Business Forum revine la 19 octombrie</t>
+  </si>
+  <si>
+    <t>Proprietarul Linella vrea să cumpere rețeaua Fourchette. Precizările Consiliului Concurenței</t>
+  </si>
+  <si>
+    <t>Imperiul ,,Linella” se extinde și mai mult și preia magazinele ,,Fourchette”</t>
+  </si>
+  <si>
+    <t>Proprietarul Linella intenționează să achiziționeze rețeaua Fourchette. Detalii din partea Consiliului Concurenței</t>
   </si>
   <si>
     <t>Experți de top din România și Republica Moldova s-au reunit la Chișinău la conferința de endoscopie și ultrasonografie</t>
   </si>
   <si>
-    <t>https://sanatateinfo.md/News/Item/12195/apel-public-al-universitatii-de-medicina-si-farmacie-nicolae-testemitanu-pentru-sustinerea-proiectului-de-lege-pentru-controlul-tutunului-este-un-pas-crucial-pentru-sanatatea-tinerilor</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/11/Schaeffler-inca-un-mare-furnizor-auto-anunta-ca-va-concedia-4700-de-angajati-la-fabricile-din-Europa-si-inchiderea-a-doua-fabrici/</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/11/Inginerii-Honda-au-creat-un-nou-motor-V3-de-motocicleta-cu-3-cilindri-si-o-turbina-electrica/</t>
-  </si>
-  <si>
-    <t>https://www.ziarulnational.md/trei-ani-de-inchisoare-pentru-1-600-de-euro-si-trei-mii-de-lei-bani-estorcati-pentru-a-facilita-obtinerea-unui-permis-de-conducere-individul-nu-si-a-mai-onorat-promisiunea-dar-si-a-recunoscut-vina-in-instanta/</t>
-  </si>
-  <si>
-    <t>https://radiochisinau.md/motorina-se-scumpeste-usor-preturile-stabilite-de-anre-pentru-carburantii-auto---203171.html</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/11/VIDEO-Chinezii-au-lansat-Souo-S2000-o-motocicleta-cu-motor-de-8-cilindri-cu-o-ingienerie-unica-in-lume/</t>
-  </si>
-  <si>
-    <t>https://www.deschide.md/ru/articole/alegeri-sua-2024-donald-trump-castiga-in-carolina-de-nord-unul-dintre-cele-sapte-state-cheie</t>
-  </si>
-  <si>
-    <t>https://m.radiochisinau.md/rezultate-alegeri-sua-2024-se-numara-voturile-trump-a-castigat-in-georgia-si-carolina-de-nord-kamala-harris-castiga-in-virginia-si-hawaii---203201.html</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/11/VIDEO-Un-mecanic-american-a-dezasamblat-renumitul-motor-diesel-1-9-TDI-de-la-VW-si-l-declara-unul-din-cele-mai-bune-din-toate-timpurile/</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/ziua-votului-in-america-primele-sectii-de-pe-coasta-de-est-s-au-deschis-/33188446/lbl1lbi393481.html</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/ziua-votului-in-america-primele-sectii-de-pe-coasta-de-est-s-au-deschis-/33188446.html</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/ziua-votului-in-america-primele-sectii-de-pe-coasta-de-est-s-au-deschis-/33188446/lbl0lbi393460.html</t>
-  </si>
-  <si>
-    <t>https://diez.md/2024/11/04/ai-grija-de-sanatatea-parului-tau-screening-gratuit-pentru-un-scalp-sanatos-oferit-de-farmacia-familiei/</t>
-  </si>
-  <si>
-    <t>https://www.deschide.md/ru/articole/turul-ii-promo-lex-primele-incidente-de-la-prezidentiale-agitatie-electorala-fotografierea-buletinelor-si-transport-organizat-de-alegatori</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/11/VIDEO-Acest-Daewoo-Matiz-din-Marea-Britanie-are-sub-capota-un-motor-de-3-2-litri-V6/</t>
-  </si>
-  <si>
-    <t>https://www.jurnal.md/ro/news/c2546c5031e3b848/producatorul-chinez-byd-a-vandut-un-numar-record-de-jumatate-de-milion-de-masini-in-luna-octombrie.html</t>
-  </si>
-  <si>
-    <t>https://www.deschide.md/articole/video-transport-organizat-din-transnistria-oamenii-recunosc-ca-cetatenii-sunt-adusi-cu-autocarele</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/en/news/2024/11/02/24008796</t>
-  </si>
-  <si>
-    <t>https://anticoruptie.md/ro/dosare-de-coruptie/doc-compania-afiliata-lui-ilan-sor-care-a-pierdut-garile-auto-cu-cererea-de-stramutare-respinsa</t>
-  </si>
-  <si>
-    <t>https://www.jurnaltv.md/news/f7276608f7cf69b5/index.html</t>
-  </si>
-  <si>
-    <t>https://www.deschide.md/articole/un-grup-de-moldoveni-adus-acasa-din-rusia-cu-transport-gratuit-pentru-a-participa-la-alegerile-din-3-noiembrie</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/en/news/2024/11/01/24008785</t>
-  </si>
-  <si>
-    <t>https://esp.md/ro/sobytiya/2024/11/01/tuberculoza-ramane-o-provocare-majora-pentru-sanatatea-publica-la-nivel-mondial</t>
-  </si>
-  <si>
-    <t>https://diez.md/2024/10/31/invata-despre-sanatatea-mediului-la-summitului-international-al-tineretului-privind-clima-activitatile-vor-avea-loc-in-slovenia/</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/VW-anunta-ca-profiturile-sale-s-au-prabusit-cu-42prc-dar-cifrele-arata-ca-problema-cea-mare-nu-vine-din-fabrici-sau-incasari-din-vanzari-de-masini/</t>
-  </si>
-  <si>
-    <t>https://vocea.md/securitatea-si-sanatatea-in-munca-abordate-la-un-forum-al-tarilor-balcanice/</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/en/news/2024/10/26/24008594</t>
-  </si>
-  <si>
-    <t>https://m.radiochisinau.md/carburantii-auto-continua-sa-se-ieftineasca-noile-preturi-stabilite-de-anre---202874.html</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/VIDEO-Hypercar-ul-suedez-Koenigsegg-Agera-RST-cu-V8-1360-CP-n-a-putut-invinge-Tesla-Model-X-Plaid-o-masina-electrica-o-tona-greutate/</t>
-  </si>
-  <si>
-    <t>https://agora.md/2024/10/29/arest-preventiv-de-30-de-zile-pentru-administratorul-unei-companii-de-inchirieri-auto</t>
-  </si>
-  <si>
-    <t>https://agora.md/2024/10/28/permisele-de-conducere-auto-moldovenesti-pot-fi-convertite-in-israel</t>
-  </si>
-  <si>
-    <t>https://m.radiochisinau.md/cetatenii-republicii-moldova-aflati-in-israel-isi-pot-converti-permisele-de-conducere-auto---202848.html</t>
-  </si>
-  <si>
-    <t>https://www.bizlaw.md/cetatenii-republicii-moldova-aflati-in-israel-isi-pot-converti-permisele-de-conducere-auto</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/soferii-pot-reclama-online-agresiunile-din-trafic-anunta-ministerul-de-interne/33175043.html</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/news/2024/10/29/24008676</t>
-  </si>
-  <si>
-    <t>https://ziuadeazi.md/un-administrator-al-unei-companii-in-domeniul-inchirierii-auto-a-fost-retinut-dupa-ce-ar-fi-delapidat-compania-si-ar-fi-estorcat-sume-de-bani/</t>
-  </si>
-  <si>
-    <t>https://www.ipn.md/ro/seful-unei-firme-de-inchirieri-auto-retinut-pentru-delapidari-7966_1108519.html</t>
-  </si>
-  <si>
-    <t>https://www.moldova.org/sala-cu-orga-invita-publicul-la-cea-de-a-xiii-a-editie-a-festivalului-international-j-s-bach/</t>
-  </si>
-  <si>
-    <t>https://www.jurnal.md/ro/news/a9710654150e6a02/borussia-dortmund-a-anuntat-decizia-luata-in-cazul-lui-nuri-sahin-dupa-eliminarea-din-cupa-germaniei.html</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/sondaje-sau-pariuri-de-ce-sunt-atat-de-diferite-sondajele-de-opinie-pentru-alegerile-prezidentiale-si-cine-castiga-din-asta/33172180.html</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/Mii-de-automobile-au-fost-distruse-in-inundatiile-din-Valencia-cele-mai-grave-din-Spania-din-ultimele-decenii/</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/video-bomba-cu-ceas-de-la-planseul-unirii/33171753.html</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/bomba-cu-ceas-de-la-planseul-unirii-poate-afecta-dambovita-metroul-transportul-central-si-reteaua-de-canalizare-/33171943.html</t>
-  </si>
-  <si>
-    <t>https://www.jurnaltv.md/news/e9910749aca2786d/index.html</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/Mercedes-a-inaugurat-prima-fabrica-Europa-reciclare-integrata-baterii-recicleaza-96prc-componente-foloseste-procese-hidrometalurgice/</t>
-  </si>
-  <si>
-    <t>https://m.radiochisinau.md/carburantii-auto-incep-saptamana-cu-ieftiniri-preturile-stabilite-de-anre---202564.html</t>
-  </si>
-  <si>
-    <t>https://timpul.md/articol/romania-trece-iarna-cu-gazele-din-depozite-vor-fi-si-plafonari.html</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/en/news/2024/10/24/24008548</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/VIDEO-Un-moldovean-povesteste-experienta-cumparare-a-unui-DS7-francez-in-Moldova-acolo-unde-nu-exista-reprezentanta-oficiala-nici-service/</t>
-  </si>
-  <si>
-    <t>https://agrotv.md/ue-interzice-erbicidele-un-pas-decisiv-pentru-sanatatea-publica/</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/tara-in-service-imobiliare-cluj-napoca/33162119.html</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/en/news/2024/10/18/24008351</t>
-  </si>
-  <si>
-    <t>https://agora.md/2024/10/14/the-new-york-times-mai-multi-copii-din-fasia-gaza-ar-fi-fost-impuscati-in-zone-vitale</t>
-  </si>
-  <si>
-    <t>https://agora.md/2024/10/18/maia-sandu-raporteaza-un-nou-fals-legat-de-sanatatea-sa-sunt-sanatoasa-mi-ajung-forte-sa-lupt-cu-toti-banditii</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/Seful-BMW-face-declaratii-transante-si-spune-ca-interzicerea-motoarelor-cu-combustie-in-2035-in-UE-nu-mai-e-realista/</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/en/news/2024/10/15/24008244</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/VIDEO-Acest-motor-de-BMW-arata-de-ce-intervalele-mari-recomandate-de-producator-pentru-schimbul-de-ulei-trebuie-ignorate/</t>
-  </si>
-  <si>
-    <t>https://www.jurnal.md/ro/news/0709f0dc8955b9d1/maib-si-bmw-moldova-lanseaza-un-parteneriat-pentru-solutii-de-finantare-auto-inovatoare-dedicate-companiilor.html</t>
-  </si>
-  <si>
-    <t>https://ea.md/atentie-candidatii-care-vor-permis-auto-din-categoriile-a-b-c-si-d-regulile-noi-stabilite-de-asp/</t>
-  </si>
-  <si>
-    <t>https://www.ipn.md/ro/pictura-murala-dedicata-sportivilor-va-fi-restabilita-7967_1108059.html</t>
-  </si>
-  <si>
-    <t>https://piataauto.md/Stiri/2024/10/VIDEO-Seful-diviziei-M-BMW-spune-ca-viitorul-M3-va-fi-electric-cu-4-electromotoare-actualul-propulsor-combustie-S58-ar-putea-ramane-productie/</t>
-  </si>
-  <si>
-    <t>https://m.radiochisinau.md/anre-anunta-noi-preturi-la-carburantii-auto-cat-vor-costa-benzina-si-motorina---202142.html</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/zeci-de-organizatii-civice-acuza-ca-ministrul-mediului-incearca-sa-le-intimideze-printr-o-plangere-la-diicot-reactia-lui-sebastian-burduja/33155157.html</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/bec-lista-finala-a-candidatilor-la-alegerile-preziden%C5%A3iale-10-de-la-partide-si-4-independen%C5%A3i-/33154055.html</t>
-  </si>
-  <si>
-    <t>https://newsmaker.md/ro/in-atentia-soferilor-traficul-rutier-va-fi-suspendat-pe-bulevardul-decebal-din-chisinau/</t>
-  </si>
-  <si>
-    <t>https://timpul.md/articol/fructul-care-ajuta-la-echilibrarea-hormonilor-si-sprijina-sanatatea-mentala.html</t>
-  </si>
-  <si>
-    <t>https://www.deschide.md/articole/foto-oamenii-lui-plahotniuc-la-brat-cu-directorul-garilor-auto-moderne</t>
-  </si>
-  <si>
-    <t>https://www.sanatateinfo.md/News/Item/12174/cum-afecteaza-tigaretele-electronice-sanatatea-adolescentilor-ninel-revenco-presedinta-societatii-de-pediatrie-din-r-moldova-fumatorii-dezvolta-afectiuni-cardiovasculare-inca-din-adolescenta</t>
-  </si>
-  <si>
-    <t>https://romania.europalibera.org/a/vot-comisia-europeana-taxe-vamale-suplimentare-masini-electrice-china/33146348.html</t>
-  </si>
-  <si>
-    <t>https://www.moldpres.md/news/2024/10/09/24008051</t>
-  </si>
-  <si>
-    <t>https://www.deschide.md/articole/fondatorul-companiei-proimobilmd-vlad-musteata-inclus-de-revista-business-magazin-in-lista-tineri-manageri-de-top-2024-din-romania</t>
-  </si>
-  <si>
-    <t>https://www.bizlaw.md/peste-80-de-persoane-vor-licenta-de-avocat-cine-sunt-candidatii-admisi-la-proba-scrisa-a-examenului-de-calificare</t>
+    <t>Numărul abonaților la telefonia fixă scade de la an la an. Câți moldoveni mai folosesc acest mijloc de comunicare</t>
+  </si>
+  <si>
+    <t>Moldtelecom a ajuns lider pe piaţa telefoniei mobile, dar la numărul de cartele pasive</t>
+  </si>
+  <si>
+    <t>https://www.moldpres.md/news/2024/11/06/24008927</t>
+  </si>
+  <si>
+    <t>https://universul.net/video-god-bless-the-usa-cantecul-ales-de-donald-trump-pentru-a-si-revendica-victoria/</t>
+  </si>
+  <si>
+    <t>https://www.bizlaw.md/crearea-agentiei-pentru-digitalizare-in-justitie-si-administrare-judecatoreasca-aprobata-de-guvern</t>
+  </si>
+  <si>
+    <t>https://www.ziarulnational.md/drrm-a-dotat-cu-table-interactive-toate-grupele-din-gradinitele-situate-in-orasul-cimislia-investitii-de-peste-1-2-milioane-de-lei-multumiri-speciale-lui-adrian-dupu-pentru-sprijinul-continuu-si-parteneriatul-de-succes/</t>
+  </si>
+  <si>
+    <t>https://www.moldpres.md/news/2024/11/05/24008912</t>
+  </si>
+  <si>
+    <t>https://www.ziarulnational.md/consultatii-stomatologice-gratuite-pentru-copiii-din-raioanele-hancesti-si-cimislia-in-aceasta-saptamana/</t>
+  </si>
+  <si>
+    <t>https://www.zdg.md/stiri/copiii-din-raioanele-hincesti-si-cimislia-vor-put%D0%B5%D0%B0-beneficia-de-servicii-stomatologice-gratuite/</t>
+  </si>
+  <si>
+    <t>https://ziar.md/servicii-stomatologice-gratuite-pentru-copii-echipele-mobile-de-medici-ajung-la-hincesti-si-cimislia/</t>
+  </si>
+  <si>
+    <t>https://diez.md/2024/11/03/topul-celor-mai-active-si-al-celor-mai-pasive-raioane-din-republica-moldova-la-turul-ii-al-alegerilor-prezidentiale/</t>
+  </si>
+  <si>
+    <t>https://diez.md/2024/11/03/turul-ii-al-alegerilor-prezidentiale-2024-start-vot/</t>
+  </si>
+  <si>
+    <t>https://www.zdg.md/stiri/cum-aflu-la-ce-sectie-de-votare-pot-sa-votez-listele-de-pe-teritoriul-tarii-inclusiv-stanga-nistrului-si-din-strainatate/</t>
+  </si>
+  <si>
+    <t>https://www.moldpres.md/news/2024/11/01/24008780</t>
+  </si>
+  <si>
+    <t>https://newsmaker.md/ro/echipa-lui-ilan-sor-vizata-de-perchezitii-12-persoane-banuite-ca-ar-fi-oferit-bani-alegatorilor-un-lider-din-cimislia-retinut/</t>
+  </si>
+  <si>
+    <t>https://www.jurnal.md/ro/news/b075b93a14754818/liderul-organizatiei-teritoriale-a-blocului-pobeda-din-cimislia-retinut-pentru-72-de-ore-pentru-frauda-electorala.html</t>
+  </si>
+  <si>
+    <t>https://www.moldova.org/leasing-financiar-de-la-otp-bank-mai-avantajos-pentru-afacerea-ta/</t>
+  </si>
+  <si>
+    <t>https://jurnalist.md/2024/10/31/in-raionul-floresti-incep-lucrarile-de-constructie-a-unui-apeduct-magistral-pentru-patru-localitati/</t>
+  </si>
+  <si>
+    <t>https://newsmaker.md/ro/video-scandal-klimenko-dat-afara-din-sala-de-judecata-sandu-promite-remanieri-in-al-doilea-mandat-cna-noi-perchezitii-la-comrat-si-cimislia-stiri-newsmaker/</t>
+  </si>
+  <si>
+    <t>https://www.jurnaltv.md/news/0da2a4fc77290855/pechezitii-la-cimislia-si-comrat.html</t>
+  </si>
+  <si>
+    <t>https://www.moldpres.md/news/2024/10/28/24008640</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/28/o-femeie-din-cimislia-este-cercetata-penal-pentru-escrocherie-si-organizarea-migratiei-ilegale-in-israel</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/29/dosarul-coruperii-electorale-perchezitii-la-cimislia-si-comrat-sase-persoane-statut-de-banuit</t>
+  </si>
+  <si>
+    <t>https://nordnews.md/stiri-nationale/social/mascatii-cna-descind-la-cimislia-si-comrat-sase-suspecti-de-corupere-electorala-si-finantare-ilegala-a-partidelor/</t>
+  </si>
+  <si>
+    <t>https://ziar.md/r-moldova-gazduieste-turul-bigfamtripmoldova2024-evenimentul-reuneste-participanti-din-circa-12-tari/</t>
+  </si>
+  <si>
+    <t>https://www.chisinau.md/ro/primaria-municipiului-chisinau-a-acordat-diplome-de-onoare-angajatilor-directiei-20292_277925.html</t>
+  </si>
+  <si>
+    <t>https://diez.md/2024/10/27/video-episodul-6-din-droom-boon-foc-la-ghete-prin-soroca-si-floresti/</t>
+  </si>
+  <si>
+    <t>https://voceabasarabiei.md/moldova-gazduieste-big-fam-trip/</t>
+  </si>
+  <si>
+    <t>https://www.mold-street.com/?go=news&amp;amp;n=19132</t>
+  </si>
+  <si>
+    <t>https://piataauto.md/Stiri/2024/10/O-noua-jonctiune-imensa-ar-putea-fi-construita-in-sectorul-Botanica-din-Chisinau-la-pachet-cu-un-nou-bloc-locativ-de-25-etaje/</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/24/creditarea-responsabila-cheia-succesului-pentru-antreprenori-interviu-cu-olga-guzun-sefa-departament-clienti-business-la-microinvest</t>
+  </si>
+  <si>
+    <t>https://voceabasarabiei.md/atentie-trenul-chisinau-iasi-va-circula-pana-la-statia-holboca/</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/21/efse-isi-consolideaza-parteneriatul-cu-microinvest-pentru-a-stimula-creditarea-in-moneda-locala-a-imm-urilor-din-moldova</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/24/fondul-green-for-growth-initiaza-un-parteneriat-cu-microinvest-in-moldova</t>
+  </si>
+  <si>
+    <t>https://www.zdg.md/stiri/stiri-sociale/unde-vor-vota-alegatorii-din-regiunea-transnistreana-adresele-sectiilor-de-votare/</t>
+  </si>
+  <si>
+    <t>https://www.jurnal.md/ro/news/546eeabe0c4a886d/cum-a-votat-fiecare-raion-la-referendum-update.html</t>
+  </si>
+  <si>
+    <t>https://diez.md/2024/10/21/cum-s-a-votat-in-toate-raioanele-din-moldova-la-prezidentialele-din-2024/</t>
+  </si>
+  <si>
+    <t>https://voceabasarabiei.md/putin-fata-in-fata-cu-seful-onu-pentru-prima-oara-de-la-invazia-ucrainei/</t>
+  </si>
+  <si>
+    <t>https://www.zdg.md/stiri/stiri-sociale/ce-trebuie-sa-faca-cetatenii-a-caror-buletine-de-identitate-au-expirat-inainte-de-alegeri/</t>
+  </si>
+  <si>
+    <t>https://www.bizlaw.md/liderul-pietei-de-creditare-nebancara-din-republica-moldova-sanctionat-de-cnpf-pentru-incalcarea-legislatiei-privind-contractele-de-credit</t>
+  </si>
+  <si>
+    <t>https://www.deschide.md/articole/referendum-digi24-integrarea-este-foarte-importanta-nu-stati-acasa-mergeti-la-vot</t>
+  </si>
+  <si>
+    <t>https://ziuadeazi.md/parteneriat-strategic-intre-dfc-si-microinvest-pentru-sustinerea-antreprenorilor-din-moldova/</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/18/dfc-si-microinvest-isi-consolideaza-parteneriatul-printr-un-credit-de-30-de-mln-de-dolari-pentru-sprijinul-antreprenoriatului-in-moldova</t>
+  </si>
+  <si>
+    <t>https://www.mold-street.com/?go=news&amp;amp;n=19123</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/17/igor-golban-fondatorul-biantti-client-microinvest-utilajele-inovatoare-asigura-o-producere-sustenabila-cu-minimum-deseuri-interviu</t>
+  </si>
+  <si>
+    <t>https://www.mold-street.com/?go=news&amp;amp;n=19105</t>
+  </si>
+  <si>
+    <t>https://bani.md/cine-sunt-granzii-din-umbra-ai-exporturilor-de-cereale-si-oleaginoase-printre-ei-un-milionar-discret/</t>
+  </si>
+  <si>
+    <t>https://www.jurnaltv.md/news/0419c5e62f2a3bfb/jurnalul-orei-19-16-octombrie.html</t>
+  </si>
+  <si>
+    <t>https://www.deschide.md/articole/ministrii-justitiei-din-r-moldova-si-romania-au-semnat-un-plan-bilateral-de-actiuni-pentru-perioada-2025-2027</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/17/un-holding-industrial-din-romania-isi-anunta-extinderea-in-republica-moldova</t>
+  </si>
+  <si>
+    <t>https://www.moldpres.md/news/2024/10/18/24008348</t>
+  </si>
+  <si>
+    <t>https://www.ziarulnational.md/vinariile-din-r-moldova-se-indeparteaza-de-gazul-rusesc-eram-ostaticii-gazprom/</t>
+  </si>
+  <si>
+    <t>https://www.deschide.md/articole/nicu-popescu-invitat-la-dialog-deschis-subiectele-de-discutie-cu-fostul-ministru-de-externe</t>
+  </si>
+  <si>
+    <t>https://anticoruptie.md/ro/electorala-2016/prezidentiale-2024-renato-usatii-legaturi-cu-lumea-interlopa-dosare-penale-si-implicare-in-laundromat</t>
+  </si>
+  <si>
+    <t>https://gov.md/ro/content/adresele-sectiilor-de-votare-destinate-pentru-alegatorii-din-regiunea-transnistreana</t>
+  </si>
+  <si>
+    <t>https://www.deschide.md/articole/sondaj-peste-63-din-moldoveni-vor-integrarea-la-ue-insa-doar-55-sunt-gata-sa-voteze-la-referendum</t>
+  </si>
+  <si>
+    <t>https://ziuadeazi.md/cel-mai-mare-producator-de-covoare-din-moldova-a-intrat-in-insolvabilitate/</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/16/cel-mai-mare-producator-de-covoare-din-republica-moldova-covoare-ungheni-a-intrat-in-insolvabilitate</t>
+  </si>
+  <si>
+    <t>https://newsmaker.md/ro/nm-espresso-ce-ne-au-promis-candidatii-la-presedintie-pe-cine-sustin-regiunile-si-ce-a-spus-mazeiks-despre-creditele-ue/</t>
+  </si>
+  <si>
+    <t>https://voceabasarabiei.md/maia-sandu-sa-nu-ne-oprim-la-jumatate-de-drum-sa-continuam-impreuna-dezvoltarea-tarii/</t>
+  </si>
+  <si>
+    <t>https://timpul.md/articol/va-rugam-sa-preveniti-o-noua-ilegalitate.html</t>
+  </si>
+  <si>
+    <t>https://bani.md/video-sprijin-pentru-afaceri-locale-directorul-oda-in-dialog-cu-antreprenorii-din-raionul-cimislia/</t>
+  </si>
+  <si>
+    <t>https://piataauto.md/Stiri/2024/10/Cum-arata-in-prezent-lucrarile-la-traseul-R26-unul-din-cele-mai-importante-din-Moldova-care-leaga-sudul-de-sud-estul-tarii/</t>
+  </si>
+  <si>
+    <t>https://www.deschide.md/articole/maia-sandu-in-discutii-cu-elevii-din-cimislia-moldova-europeana-se-construieste-prin-unitate-efort-comun-si-multa-munca</t>
+  </si>
+  <si>
+    <t>https://ziuadeazi.md/targul-de-covoare-la-cahul-reduceri-pana-la-80/</t>
+  </si>
+  <si>
+    <t>https://bani.md/nasul-milionar-al-unui-fost-deputat-pregateste-o-achizitie-de-amploare-vizeaza-un-lant-de-supermarketuri/</t>
+  </si>
+  <si>
+    <t>https://www.chisinau.md/ro/primaria-municipiului-chisinau-a-lansat-inscrierile-pentru-festivalul-municipal-20292_277794.html</t>
+  </si>
+  <si>
+    <t>https://agora.md/2024/10/10/scumpiri-de-10percent-la-produsele-lactate-anuntate-de-cel-mai-mare-producator-din-tara</t>
+  </si>
+  <si>
+    <t>https://esp.md/ro/sobytiya/2024/10/10/produsele-de-lapte-jlc-devin-mai-scumpe-majorari-de-pret</t>
+  </si>
+  <si>
+    <t>https://www.mold-street.com/?go=news&amp;amp;n=19081</t>
+  </si>
+  <si>
+    <t>https://ziuadeazi.md/cel-mai-mare-producator-de-lactate-a-scumpit-produsele-cu-circa-10-vezi-motivul/</t>
+  </si>
+  <si>
+    <t>https://www.jurnal.md/ro/news/160c9b6a1b7b18d5/million-club-moldova-business-forum-revine-la-19-octombrie.html</t>
+  </si>
+  <si>
+    <t>https://www.ipn.md/ro/proprietarul-linella-vrea-sa-cumpere-reteaua-fourchette-precizarile-consiliului-7966_1107869.html</t>
+  </si>
+  <si>
+    <t>https://ziuadeazi.md/imperiul-linella-se-extinde-si-mai-mult-si-preia-magazinele-fourchette/</t>
+  </si>
+  <si>
+    <t>https://ea.md/proprietarul-linella-intentioneaza-sa-achizitioneze-reteaua-fourchette-detalii-din-partea-consiliului-concurentei/</t>
   </si>
   <si>
     <t>https://diez.md/2024/10/09/experti-de-top-din-romania-si-republica-moldova-s-au-reunit-la-chisinau-la-conferinta-de-endoscopie-si-ultrasonografie/</t>
+  </si>
+  <si>
+    <t>https://bani.md/numarul-abonatilor-la-telefonia-fixa-scade-de-la-an-la-an-cati-moldoveni-mai-folosesc-acest-mijloc-de-comunicare/</t>
+  </si>
+  <si>
+    <t>https://www.mold-street.com/?go=news&amp;amp;n=19073</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1040,16 +1145,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1063,16 +1168,16 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1080,45 +1185,45 @@
         <v>45603</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1129,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1149,459 +1254,459 @@
         <v>45602</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45601</v>
+        <v>45600</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45601</v>
+        <v>45600</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45601</v>
+        <v>45599</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45601</v>
+        <v>45599</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45601</v>
+        <v>45598</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45599</v>
+        <v>45597</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45599</v>
+        <v>45597</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45599</v>
+        <v>45597</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45599</v>
+        <v>45597</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45599</v>
+        <v>45596</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45598</v>
+        <v>45596</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45598</v>
+        <v>45596</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45598</v>
+        <v>45596</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45598</v>
+        <v>45596</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45598</v>
+        <v>45596</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1609,22 +1714,22 @@
         <v>45596</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1635,571 +1740,571 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45596</v>
+        <v>45589</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45596</v>
+        <v>45582</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45596</v>
+        <v>45582</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45596</v>
+        <v>45582</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45596</v>
+        <v>45582</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45588</v>
+        <v>45582</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2207,22 +2312,22 @@
         <v>45582</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2230,22 +2335,22 @@
         <v>45582</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2253,22 +2358,22 @@
         <v>45582</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2279,19 +2384,19 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2299,22 +2404,22 @@
         <v>45582</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2322,22 +2427,22 @@
         <v>45582</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2348,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2368,206 +2473,206 @@
         <v>45582</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45574</v>
+        <v>45582</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2581,16 +2686,16 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2598,22 +2703,22 @@
         <v>45573</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2621,22 +2726,22 @@
         <v>45573</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2647,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2667,68 +2772,275 @@
         <v>45573</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F75" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>203</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" t="s">
+        <v>159</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s">
+        <v>162</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2807,6 +3119,15 @@
     <hyperlink ref="G73" r:id="rId72"/>
     <hyperlink ref="G74" r:id="rId73"/>
     <hyperlink ref="G75" r:id="rId74"/>
+    <hyperlink ref="G76" r:id="rId75"/>
+    <hyperlink ref="G77" r:id="rId76"/>
+    <hyperlink ref="G78" r:id="rId77"/>
+    <hyperlink ref="G79" r:id="rId78"/>
+    <hyperlink ref="G80" r:id="rId79"/>
+    <hyperlink ref="G81" r:id="rId80"/>
+    <hyperlink ref="G82" r:id="rId81"/>
+    <hyperlink ref="G83" r:id="rId82"/>
+    <hyperlink ref="G84" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
